--- a/Topptipset.xlsx
+++ b/Topptipset.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -492,35 +491,35 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Piteå IF - AIK</t>
+          <t>Wolverh. - Liverpool</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1.51</v>
+        <v>7.5</v>
       </c>
       <c r="D2" t="n">
-        <v>4.25</v>
+        <v>4.85</v>
       </c>
       <c r="E2" t="n">
-        <v>5.05</v>
+        <v>1.43</v>
       </c>
       <c r="F2" t="n">
-        <v>0.62</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="G2" t="n">
-        <v>0.21</v>
+        <v>0.19</v>
       </c>
       <c r="H2" t="n">
-        <v>0.17</v>
+        <v>0.74</v>
       </c>
       <c r="I2" t="n">
-        <v>-4.225165562913913</v>
+        <v>-6.333333333333332</v>
       </c>
       <c r="J2" t="n">
-        <v>-2.529411764705883</v>
+        <v>-1.618556701030929</v>
       </c>
       <c r="K2" t="n">
-        <v>-2.801980198019802</v>
+        <v>4.069930069930061</v>
       </c>
     </row>
     <row r="3">
@@ -529,35 +528,35 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Mjöndalen - Odds BK</t>
+          <t>Watford - Manch.C</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2.61</v>
+        <v>14.7</v>
       </c>
       <c r="D3" t="n">
-        <v>3.13</v>
+        <v>7.65</v>
       </c>
       <c r="E3" t="n">
-        <v>2.48</v>
+        <v>1.19</v>
       </c>
       <c r="F3" t="n">
-        <v>0.31</v>
+        <v>0.05</v>
       </c>
       <c r="G3" t="n">
-        <v>0.3</v>
+        <v>0.11</v>
       </c>
       <c r="H3" t="n">
-        <v>0.39</v>
+        <v>0.84</v>
       </c>
       <c r="I3" t="n">
-        <v>-7.31417624521073</v>
+        <v>-1.802721088435375</v>
       </c>
       <c r="J3" t="n">
-        <v>-1.94888178913738</v>
+        <v>-2.071895424836602</v>
       </c>
       <c r="K3" t="n">
-        <v>-1.322580645161292</v>
+        <v>-0.03361344537815558</v>
       </c>
     </row>
     <row r="4">
@@ -566,35 +565,35 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Vålerenge - Sarpsbor.</t>
+          <t>Newcastle - Burnley</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1.48</v>
+        <v>2.26</v>
       </c>
       <c r="D4" t="n">
-        <v>3.97</v>
+        <v>3.46</v>
       </c>
       <c r="E4" t="n">
-        <v>6.05</v>
+        <v>3.29</v>
       </c>
       <c r="F4" t="n">
-        <v>0.61</v>
+        <v>0.45</v>
       </c>
       <c r="G4" t="n">
-        <v>0.25</v>
+        <v>0.32</v>
       </c>
       <c r="H4" t="n">
-        <v>0.14</v>
+        <v>0.23</v>
       </c>
       <c r="I4" t="n">
-        <v>-6.567567567567567</v>
+        <v>0.7522123893805299</v>
       </c>
       <c r="J4" t="n">
-        <v>-0.1889168765743077</v>
+        <v>3.098265895953756</v>
       </c>
       <c r="K4" t="n">
-        <v>-2.52892561983471</v>
+        <v>-7.395136778115499</v>
       </c>
     </row>
     <row r="5">
@@ -603,35 +602,35 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Valur - FH Hafnar</t>
+          <t>Southampt - Brighton</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1.92</v>
+        <v>2.56</v>
       </c>
       <c r="D5" t="n">
-        <v>3.44</v>
+        <v>3.2</v>
       </c>
       <c r="E5" t="n">
-        <v>3.38</v>
+        <v>3.02</v>
       </c>
       <c r="F5" t="n">
-        <v>0.58</v>
+        <v>0.44</v>
       </c>
       <c r="G5" t="n">
-        <v>0.25</v>
+        <v>0.32</v>
       </c>
       <c r="H5" t="n">
-        <v>0.17</v>
+        <v>0.24</v>
       </c>
       <c r="I5" t="n">
-        <v>5.916666666666659</v>
+        <v>4.9375</v>
       </c>
       <c r="J5" t="n">
-        <v>-4.069767441860467</v>
+        <v>0.7500000000000007</v>
       </c>
       <c r="K5" t="n">
-        <v>-12.58579881656805</v>
+        <v>-9.112582781456958</v>
       </c>
     </row>
     <row r="6">
@@ -640,35 +639,35 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Balkan - Hässle IF</t>
+          <t>Barnsley - Huddersf.</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2.93</v>
+        <v>2.86</v>
       </c>
       <c r="D6" t="n">
-        <v>3.33</v>
+        <v>3.09</v>
       </c>
       <c r="E6" t="n">
-        <v>2.21</v>
+        <v>2.67</v>
       </c>
       <c r="F6" t="n">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="G6" t="n">
-        <v>0.29</v>
+        <v>0.3</v>
       </c>
       <c r="H6" t="n">
-        <v>0.38</v>
+        <v>0.4</v>
       </c>
       <c r="I6" t="n">
-        <v>-1.129692832764501</v>
+        <v>-4.96503496503497</v>
       </c>
       <c r="J6" t="n">
-        <v>-1.030030030030032</v>
+        <v>-2.362459546925572</v>
       </c>
       <c r="K6" t="n">
-        <v>-7.248868778280543</v>
+        <v>2.546816479400749</v>
       </c>
     </row>
     <row r="7">
@@ -677,35 +676,35 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Bragantin - Ceará</t>
+          <t>Blackburn - Preston</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1.61</v>
+        <v>2.29</v>
       </c>
       <c r="D7" t="n">
-        <v>3.55</v>
+        <v>3.27</v>
       </c>
       <c r="E7" t="n">
-        <v>5.1</v>
+        <v>3.28</v>
       </c>
       <c r="F7" t="n">
-        <v>0.65</v>
+        <v>0.57</v>
       </c>
       <c r="G7" t="n">
-        <v>0.24</v>
+        <v>0.23</v>
       </c>
       <c r="H7" t="n">
-        <v>0.11</v>
+        <v>0.2</v>
       </c>
       <c r="I7" t="n">
-        <v>2.888198757763982</v>
+        <v>13.33187772925763</v>
       </c>
       <c r="J7" t="n">
-        <v>-4.169014084507045</v>
+        <v>-7.581039755351679</v>
       </c>
       <c r="K7" t="n">
-        <v>-8.607843137254905</v>
+        <v>-10.48780487804878</v>
       </c>
     </row>
     <row r="8">
@@ -714,35 +713,35 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Atlét. MG - Atlét. GO</t>
+          <t>Blackpool - Luton</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1.62</v>
+        <v>2.99</v>
       </c>
       <c r="D8" t="n">
-        <v>3.31</v>
+        <v>3.12</v>
       </c>
       <c r="E8" t="n">
-        <v>5.5</v>
+        <v>2.55</v>
       </c>
       <c r="F8" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.32</v>
       </c>
       <c r="G8" t="n">
-        <v>0.28</v>
+        <v>0.3</v>
       </c>
       <c r="H8" t="n">
-        <v>0.16</v>
+        <v>0.38</v>
       </c>
       <c r="I8" t="n">
-        <v>-5.728395061728387</v>
+        <v>-1.444816053511705</v>
       </c>
       <c r="J8" t="n">
-        <v>-2.21148036253776</v>
+        <v>-2.051282051282049</v>
       </c>
       <c r="K8" t="n">
-        <v>-2.181818181818182</v>
+        <v>-1.215686274509808</v>
       </c>
     </row>
     <row r="9">
@@ -751,35 +750,35 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Cuiaba MT - Flamengo</t>
+          <t>Bristol C - Derby</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5.55</v>
+        <v>2.71</v>
       </c>
       <c r="D9" t="n">
-        <v>3.37</v>
+        <v>3.17</v>
       </c>
       <c r="E9" t="n">
-        <v>1.61</v>
+        <v>2.76</v>
       </c>
       <c r="F9" t="n">
-        <v>0.14</v>
+        <v>0.42</v>
       </c>
       <c r="G9" t="n">
-        <v>0.29</v>
+        <v>0.3</v>
       </c>
       <c r="H9" t="n">
-        <v>0.57</v>
+        <v>0.28</v>
       </c>
       <c r="I9" t="n">
-        <v>-4.018018018018019</v>
+        <v>5.099630996309962</v>
       </c>
       <c r="J9" t="n">
-        <v>-0.6735905044510382</v>
+        <v>-1.545741324921135</v>
       </c>
       <c r="K9" t="n">
-        <v>-5.111801242236025</v>
+        <v>-8.231884057971017</v>
       </c>
     </row>
   </sheetData>
